--- a/2_Formulas_Functions/9_Date_Time_Functions.xlsx
+++ b/2_Formulas_Functions/9_Date_Time_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27920"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4120CA64-8CBA-431F-A4EA-8E1D421D3E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288345D-4D33-4410-9FB9-9A0F79CA3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="96">
   <si>
     <t>Email</t>
   </si>
@@ -507,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -523,9 +523,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1892,19 +1891,19 @@
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.26171875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1930,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2190,7 +2189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2216,7 +2215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2398,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -2464,25 +2463,25 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83984375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="22" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -2516,20 +2515,17 @@
       <c r="L1" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="16"/>
       <c r="N1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="16"/>
       <c r="P1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="Q1" s="16"/>
       <c r="R1" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -2572,14 +2568,14 @@
       </c>
       <c r="P2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="R2">
-        <f ca="1">DATEDIF(N2,$P$2,"D")</f>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">DATEDIF(D2,$P$2,"D")</f>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2621,11 +2617,11 @@
         <v>45055</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R21" ca="1" si="4">DATEDIF(N3,$P$2,"D")</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <f ca="1">DATEDIF(D3,$P$2,"D")</f>
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2667,11 +2663,11 @@
         <v>45128</v>
       </c>
       <c r="R4">
-        <f t="shared" ca="1" si="4"/>
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R4:R21" ca="1" si="4">DATEDIF(D4,$P$2,"D")</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2714,10 +2710,10 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2760,10 +2756,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="4"/>
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2806,10 +2802,10 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2853,10 +2849,10 @@
       <c r="P8" s="9"/>
       <c r="R8">
         <f t="shared" ca="1" si="4"/>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2899,10 +2895,10 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2945,10 +2941,10 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2990,11 +2986,11 @@
         <v>45480</v>
       </c>
       <c r="R11">
-        <f ca="1">DATEDIF(N11,$P$2,"D")</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -3037,10 +3033,10 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="4"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -3083,10 +3079,10 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="4"/>
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -3129,10 +3125,10 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="4"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3175,10 +3171,10 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="4"/>
-        <v>419</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3221,10 +3217,10 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="4"/>
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3267,10 +3263,10 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="4"/>
-        <v>279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3313,10 +3309,10 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="4"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -3359,10 +3355,10 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -3405,10 +3401,10 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -3451,7 +3447,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3463,24 +3459,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2CB8-8C8C-43FB-95B8-5A63A3C08A07}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R3:R26"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -3514,15 +3511,18 @@
       <c r="L1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="16"/>
       <c r="N1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="O1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R1" s="16"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -3563,6 +3563,10 @@
         <f>TIME(J2,K2,L2)</f>
         <v>0.64045138888888886</v>
       </c>
+      <c r="O2" t="str">
+        <f>TEXT(D2, "hh:mm")</f>
+        <v>15:22</v>
+      </c>
       <c r="Q2" t="s">
         <v>90</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -3611,6 +3615,10 @@
         <f t="shared" ref="N3:N21" si="3">TIME(J3,K3,L3)</f>
         <v>0.40662037037037035</v>
       </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O21" si="4">TEXT(D3, "hh:mm")</f>
+        <v>09:45</v>
+      </c>
       <c r="Q3" s="14">
         <v>1</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -3660,15 +3668,19 @@
         <f t="shared" si="3"/>
         <v>0.72971064814814812</v>
       </c>
+      <c r="O4" t="str">
+        <f t="shared" si="4"/>
+        <v>17:30</v>
+      </c>
       <c r="Q4" s="14">
         <v>2</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R26" si="4">COUNTIF($J$2:$J$21,Q4)</f>
+        <f t="shared" ref="R4:R26" si="5">COUNTIF($J$2:$J$21,Q4)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -3709,15 +3721,19 @@
         <f t="shared" si="3"/>
         <v>0.3021875</v>
       </c>
+      <c r="O5" t="str">
+        <f t="shared" si="4"/>
+        <v>07:15</v>
+      </c>
       <c r="Q5" s="14">
         <v>3</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -3758,15 +3774,19 @@
         <f t="shared" si="3"/>
         <v>0.70857638888888885</v>
       </c>
+      <c r="O6" t="str">
+        <f t="shared" si="4"/>
+        <v>17:00</v>
+      </c>
       <c r="Q6" s="14">
         <v>4</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -3807,15 +3827,19 @@
         <f t="shared" si="3"/>
         <v>0.53192129629629625</v>
       </c>
+      <c r="O7" t="str">
+        <f t="shared" si="4"/>
+        <v>12:45</v>
+      </c>
       <c r="Q7" s="14">
         <v>5</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -3856,15 +3880,19 @@
         <f t="shared" si="3"/>
         <v>0.68788194444444439</v>
       </c>
+      <c r="O8" t="str">
+        <f t="shared" si="4"/>
+        <v>16:30</v>
+      </c>
       <c r="Q8" s="14">
         <v>6</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -3905,15 +3933,19 @@
         <f t="shared" si="3"/>
         <v>0.34081018518518519</v>
       </c>
+      <c r="O9" t="str">
+        <f t="shared" si="4"/>
+        <v>08:10</v>
+      </c>
       <c r="Q9" s="14">
         <v>7</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -3954,15 +3986,19 @@
         <f t="shared" si="3"/>
         <v>0.74333333333333329</v>
       </c>
+      <c r="O10" t="str">
+        <f t="shared" si="4"/>
+        <v>17:50</v>
+      </c>
       <c r="Q10" s="14">
         <v>8</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -4003,15 +4039,19 @@
         <f t="shared" si="3"/>
         <v>0.60805555555555557</v>
       </c>
+      <c r="O11" t="str">
+        <f t="shared" si="4"/>
+        <v>14:35</v>
+      </c>
       <c r="Q11" s="14">
         <v>9</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -4052,15 +4092,19 @@
         <f t="shared" si="3"/>
         <v>0.28493055555555558</v>
       </c>
+      <c r="O12" t="str">
+        <f t="shared" si="4"/>
+        <v>06:50</v>
+      </c>
       <c r="Q12" s="14">
         <v>10</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -4101,15 +4145,19 @@
         <f t="shared" si="3"/>
         <v>0.55214120370370368</v>
       </c>
+      <c r="O13" t="str">
+        <f t="shared" si="4"/>
+        <v>13:15</v>
+      </c>
       <c r="Q13" s="14">
         <v>11</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -4150,15 +4198,19 @@
         <f t="shared" si="3"/>
         <v>0.49003472222222222</v>
       </c>
+      <c r="O14" t="str">
+        <f t="shared" si="4"/>
+        <v>11:45</v>
+      </c>
       <c r="Q14" s="14">
         <v>12</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -4199,15 +4251,19 @@
         <f t="shared" si="3"/>
         <v>0.41725694444444444</v>
       </c>
+      <c r="O15" t="str">
+        <f t="shared" si="4"/>
+        <v>10:00</v>
+      </c>
       <c r="Q15" s="14">
         <v>13</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -4248,15 +4304,19 @@
         <f t="shared" si="3"/>
         <v>0.72932870370370373</v>
       </c>
+      <c r="O16" t="str">
+        <f t="shared" si="4"/>
+        <v>17:30</v>
+      </c>
       <c r="Q16" s="14">
         <v>14</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -4297,15 +4357,19 @@
         <f t="shared" si="3"/>
         <v>0.3197800925925926</v>
       </c>
+      <c r="O17" t="str">
+        <f t="shared" si="4"/>
+        <v>07:40</v>
+      </c>
       <c r="Q17" s="14">
         <v>15</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -4346,15 +4410,19 @@
         <f t="shared" si="3"/>
         <v>0.71923611111111108</v>
       </c>
+      <c r="O18" t="str">
+        <f t="shared" si="4"/>
+        <v>17:15</v>
+      </c>
       <c r="Q18" s="14">
         <v>16</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -4395,15 +4463,19 @@
         <f t="shared" si="3"/>
         <v>0.72635416666666663</v>
       </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>17:25</v>
+      </c>
       <c r="Q19" s="14">
         <v>17</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -4444,15 +4516,19 @@
         <f t="shared" si="3"/>
         <v>0.29170138888888891</v>
       </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>07:00</v>
+      </c>
       <c r="Q20" s="14">
         <v>18</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -4493,56 +4569,60 @@
         <f t="shared" si="3"/>
         <v>0.73988425925925927</v>
       </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>17:45</v>
+      </c>
       <c r="Q21" s="14">
         <v>19</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q22" s="14">
         <v>20</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q23" s="14">
         <v>21</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q24" s="14">
         <v>22</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q25" s="14">
         <v>23</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q26" s="14">
         <v>24</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/2_Formulas_Functions/9_Date_Time_Functions.xlsx
+++ b/2_Formulas_Functions/9_Date_Time_Functions.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9288345D-4D33-4410-9FB9-9A0F79CA3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B682AA-3284-4B67-84CE-D03F1625E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Original" sheetId="8" r:id="rId1"/>
+    <sheet name="Data" sheetId="8" r:id="rId1"/>
     <sheet name="Date" sheetId="14" r:id="rId2"/>
     <sheet name="Time" sheetId="15" r:id="rId3"/>
   </sheets>
@@ -1888,22 +1888,22 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.26171875" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -2466,22 +2466,22 @@
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.83984375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -2568,14 +2568,14 @@
       </c>
       <c r="P2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45498</v>
+        <v>45511</v>
       </c>
       <c r="R2">
         <f ca="1">DATEDIF(D2,$P$2,"D")</f>
-        <v>527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2618,10 +2618,10 @@
       </c>
       <c r="R3">
         <f ca="1">DATEDIF(D3,$P$2,"D")</f>
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2664,10 +2664,10 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R21" ca="1" si="4">DATEDIF(D4,$P$2,"D")</f>
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2710,10 +2710,10 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2756,10 +2756,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="4"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2802,10 +2802,10 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2849,10 +2849,10 @@
       <c r="P8" s="9"/>
       <c r="R8">
         <f t="shared" ca="1" si="4"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2895,10 +2895,10 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2941,10 +2941,10 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2987,10 +2987,10 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -3033,10 +3033,10 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -3079,10 +3079,10 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="4"/>
-        <v>547</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -3125,10 +3125,10 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="4"/>
-        <v>496</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3171,10 +3171,10 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="4"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3217,10 +3217,10 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="4"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3263,10 +3263,10 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="4"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3309,10 +3309,10 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="4"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -3355,10 +3355,10 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -3401,10 +3401,10 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3463,21 +3463,21 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.3671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q22" s="14">
         <v>20</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q23" s="14">
         <v>21</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q24" s="14">
         <v>22</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q25" s="14">
         <v>23</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="Q26" s="14">
         <v>24</v>
       </c>

--- a/2_Formulas_Functions/9_Date_Time_Functions.xlsx
+++ b/2_Formulas_Functions/9_Date_Time_Functions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B682AA-3284-4B67-84CE-D03F1625E05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E79171-D30D-4665-A15E-9C185E9A912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="96">
   <si>
     <t>Email</t>
   </si>
@@ -585,7 +585,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Count</a:t>
+              <a:t>Count by Hour</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1885,25 +1885,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.26171875" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.20703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.9453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1928,8 +1931,45 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="16"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -1955,7 +1995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -1981,7 +2021,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2007,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2033,7 +2073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2059,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2085,7 +2125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2111,7 +2151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2137,7 +2177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +2203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2189,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -2215,7 +2255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -2241,7 +2281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -2267,7 +2307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -2293,7 +2333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -2319,7 +2359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2345,7 +2385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2371,7 +2411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2397,7 +2437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2423,7 +2463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -2463,25 +2503,25 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83984375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -2525,7 +2565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -2568,14 +2608,14 @@
       </c>
       <c r="P2" s="9">
         <f ca="1">TODAY()</f>
-        <v>45511</v>
+        <v>45538</v>
       </c>
       <c r="R2">
         <f ca="1">DATEDIF(D2,$P$2,"D")</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -2618,10 +2658,10 @@
       </c>
       <c r="R3">
         <f ca="1">DATEDIF(D3,$P$2,"D")</f>
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -2664,10 +2704,10 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R21" ca="1" si="4">DATEDIF(D4,$P$2,"D")</f>
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -2710,10 +2750,10 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -2756,10 +2796,10 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="4"/>
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -2802,10 +2842,10 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="4"/>
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -2849,10 +2889,10 @@
       <c r="P8" s="9"/>
       <c r="R8">
         <f t="shared" ca="1" si="4"/>
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -2895,10 +2935,10 @@
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -2941,10 +2981,10 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -2987,10 +3027,10 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -3033,10 +3073,10 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -3079,10 +3119,10 @@
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="4"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -3125,10 +3165,10 @@
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="4"/>
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -3171,10 +3211,10 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="4"/>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -3217,10 +3257,10 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="4"/>
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -3263,10 +3303,10 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="4"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -3309,10 +3349,10 @@
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="4"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -3355,10 +3395,10 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -3401,10 +3441,10 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -3447,7 +3487,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3459,25 +3499,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E2CB8-8C8C-43FB-95B8-5A63A3C08A07}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -3522,7 +3562,7 @@
       </c>
       <c r="R1" s="16"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -3574,7 +3614,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -3627,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>66</v>
       </c>
@@ -3680,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>67</v>
       </c>
@@ -3733,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>68</v>
       </c>
@@ -3786,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -3839,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -3892,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
@@ -3945,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -3998,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
@@ -4051,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -4104,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -4157,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -4210,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -4263,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>78</v>
       </c>
@@ -4316,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -4369,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -4422,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -4475,7 +4515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -4528,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -4581,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q22" s="14">
         <v>20</v>
       </c>
@@ -4590,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q23" s="14">
         <v>21</v>
       </c>
@@ -4599,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q24" s="14">
         <v>22</v>
       </c>
@@ -4608,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q25" s="14">
         <v>23</v>
       </c>
@@ -4617,7 +4657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="Q26" s="14">
         <v>24</v>
       </c>

--- a/2_Formulas_Functions/9_Date_Time_Functions.xlsx
+++ b/2_Formulas_Functions/9_Date_Time_Functions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E79171-D30D-4665-A15E-9C185E9A912F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C08F6B-577E-40FC-87A2-A00B849E81C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,7 +361,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +374,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -503,11 +509,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -525,6 +540,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,23 +1903,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5E7F13-C613-4452-9CDB-2C26D6876D9D}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26171875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.26171875" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.20703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.9453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
+    <col min="10" max="13" width="8.83984375" customWidth="1"/>
+    <col min="14" max="14" width="14.20703125" customWidth="1"/>
+    <col min="15" max="17" width="8.83984375" customWidth="1"/>
+    <col min="18" max="18" width="15.9453125" customWidth="1"/>
+    <col min="19" max="23" width="8.83984375" customWidth="1"/>
+    <col min="24" max="25" width="14.3671875" customWidth="1"/>
+    <col min="26" max="26" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -1931,6 +1951,7 @@
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="17"/>
       <c r="J1" s="15" t="s">
         <v>84</v>
       </c>
@@ -1994,6 +2015,9 @@
       <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="X2" s="13"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
@@ -2020,6 +2044,8 @@
       <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="N3" s="9"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
@@ -2046,6 +2072,8 @@
       <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="N4" s="9"/>
+      <c r="X4" s="13"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -2072,6 +2100,8 @@
       <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="N5" s="9"/>
+      <c r="X5" s="13"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
@@ -2098,6 +2128,8 @@
       <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="N6" s="9"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
@@ -2124,6 +2156,8 @@
       <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="N7" s="9"/>
+      <c r="X7" s="13"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
@@ -2150,6 +2184,8 @@
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="N8" s="9"/>
+      <c r="X8" s="13"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
@@ -2176,6 +2212,8 @@
       <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="N9" s="9"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
@@ -2202,6 +2240,8 @@
       <c r="H10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="N10" s="9"/>
+      <c r="X10" s="13"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
@@ -2228,6 +2268,8 @@
       <c r="H11" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="N11" s="9"/>
+      <c r="X11" s="13"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
@@ -2254,6 +2296,8 @@
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="N12" s="9"/>
+      <c r="X12" s="13"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
@@ -2280,6 +2324,8 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="N13" s="9"/>
+      <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5" t="s">
@@ -2306,6 +2352,8 @@
       <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="N14" s="9"/>
+      <c r="X14" s="13"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
@@ -2332,6 +2380,8 @@
       <c r="H15" s="6" t="s">
         <v>19</v>
       </c>
+      <c r="N15" s="9"/>
+      <c r="X15" s="13"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
@@ -2358,8 +2408,10 @@
       <c r="H16" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="9"/>
+      <c r="X16" s="13"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>79</v>
       </c>
@@ -2384,8 +2436,10 @@
       <c r="H17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N17" s="9"/>
+      <c r="X17" s="13"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -2410,8 +2464,10 @@
       <c r="H18" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18" s="9"/>
+      <c r="X18" s="13"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -2436,8 +2492,10 @@
       <c r="H19" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19" s="9"/>
+      <c r="X19" s="13"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
@@ -2462,8 +2520,10 @@
       <c r="H20" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="N20" s="9"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
@@ -2488,6 +2548,8 @@
       <c r="H21" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="N21" s="9"/>
+      <c r="X21" s="13"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H22">
@@ -2502,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3969B28-4CA1-4CA9-A455-FC26EC1A58EA}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2516,6 +2578,7 @@
     <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="22" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="1.83984375" customWidth="1"/>
     <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.68359375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
@@ -3500,7 +3563,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3513,6 +3576,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.734375" customWidth="1"/>
     <col min="14" max="14" width="15.83984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.41796875" bestFit="1" customWidth="1"/>
   </cols>
